--- a/ChlamEE_phenotypic_measurements.xlsx
+++ b/ChlamEE_phenotypic_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manutamminen/Dropbox/Scratch/proteomics/chlamy_proteome_evolution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mavatam/Dropbox/Scratch/proteomics/chlamy_proteome_evolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801C8AD-8C56-B349-9F75-12AC7EEA6DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D49FFCF-0C1F-334E-A73D-BED444122AD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19500" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19500" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All data" sheetId="3" r:id="rId1"/>
@@ -19,19 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All data'!$A$1:$B$38</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>Ancestor</t>
   </si>
@@ -69,9 +62,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">BS, C, B, S, L, N, P   </t>
   </si>
   <si>
@@ -93,9 +83,6 @@
     <t>The various selection treatments that different strains were put under during the evolution experiment.</t>
   </si>
   <si>
-    <t>The identity of Strain ID 17 and 18 is unknown for these filtrate variables as they were mixed up while filtering.</t>
-  </si>
-  <si>
     <t>Carbon to nitrogen molar ratio of biomass</t>
   </si>
   <si>
@@ -154,9 +141,6 @@
   </si>
   <si>
     <t>Oxygen respiration in mg per L per hour.</t>
-  </si>
-  <si>
-    <t>Carried out by Dany in KB.</t>
   </si>
   <si>
     <t>mgC  L-1 h-1</t>
@@ -518,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -542,39 +526,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -609,7 +593,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -644,7 +628,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -679,7 +663,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -714,7 +698,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -749,7 +733,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -784,7 +768,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -819,7 +803,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -854,7 +838,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -889,7 +873,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -924,7 +908,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -959,7 +943,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>3</v>
@@ -994,7 +978,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
@@ -1029,7 +1013,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
@@ -1064,7 +1048,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -1099,7 +1083,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
@@ -1134,7 +1118,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
@@ -1169,7 +1153,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -1204,7 +1188,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
@@ -1239,7 +1223,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -1274,7 +1258,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -1309,7 +1293,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
@@ -1344,7 +1328,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -1379,7 +1363,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
@@ -1414,7 +1398,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1</v>
@@ -1449,7 +1433,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -1484,7 +1468,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -1519,7 +1503,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1</v>
@@ -1554,7 +1538,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
@@ -1589,7 +1573,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>3</v>
@@ -1624,7 +1608,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
@@ -1659,7 +1643,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>2</v>
@@ -1694,10 +1678,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="9">
         <v>0.26585729344625803</v>
@@ -1729,10 +1713,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="9">
         <v>0.31785964271613099</v>
@@ -1764,10 +1748,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="9">
         <v>0.212575201324429</v>
@@ -1799,10 +1783,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="8">
         <v>0.27594728893157799</v>
@@ -1834,10 +1818,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="9">
         <v>0.40212199417753502</v>
@@ -1875,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1886,11 +1870,10 @@
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="89.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.1640625" style="2"/>
+    <col min="4" max="16384" width="11.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1900,138 +1883,123 @@
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ChlamEE_phenotypic_measurements.xlsx
+++ b/ChlamEE_phenotypic_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mavatam/Dropbox/Scratch/proteomics/chlamy_proteome_evolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D49FFCF-0C1F-334E-A73D-BED444122AD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9050321-C3F1-B941-B871-A6976086327F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19500" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="460" windowWidth="19500" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All data" sheetId="3" r:id="rId1"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -572,8 +572,8 @@
       <c r="E2" s="3">
         <v>3.4708848591153534</v>
       </c>
-      <c r="F2" s="3">
-        <v>30.746409345348486</v>
+      <c r="F2" s="10">
+        <v>83.431187089848493</v>
       </c>
       <c r="G2" s="3">
         <v>0.60044292308659086</v>
@@ -607,8 +607,8 @@
       <c r="E3" s="3">
         <v>4.4669043298245761</v>
       </c>
-      <c r="F3" s="3">
-        <v>28.09825757715684</v>
+      <c r="F3" s="10">
+        <v>76.245357904635497</v>
       </c>
       <c r="G3" s="3">
         <v>0.54402333560484184</v>
@@ -642,8 +642,8 @@
       <c r="E4" s="3">
         <v>4.9459719452374014</v>
       </c>
-      <c r="F4" s="3">
-        <v>29.816214623419608</v>
+      <c r="F4" s="10">
+        <v>80.90707934759017</v>
       </c>
       <c r="G4" s="3">
         <v>0.89705677579062992</v>
@@ -677,8 +677,8 @@
       <c r="E5" s="3">
         <v>4.8760836914909378</v>
       </c>
-      <c r="F5" s="3">
-        <v>24.229172435145347</v>
+      <c r="F5" s="10">
+        <v>65.746494030029936</v>
       </c>
       <c r="G5" s="3">
         <v>0.77057636971819465</v>
@@ -712,8 +712,8 @@
       <c r="E6" s="3">
         <v>4.6131839694684373</v>
       </c>
-      <c r="F6" s="3">
-        <v>20.11132472978284</v>
+      <c r="F6" s="10">
+        <v>54.57260642401009</v>
       </c>
       <c r="G6" s="3">
         <v>0.3050642451240132</v>
@@ -747,8 +747,8 @@
       <c r="E7" s="3">
         <v>5.1819378436799655</v>
       </c>
-      <c r="F7" s="3">
-        <v>30.052430126741935</v>
+      <c r="F7" s="10">
+        <v>81.548056302975326</v>
       </c>
       <c r="G7" s="3">
         <v>0.42825991075588227</v>
@@ -782,8 +782,8 @@
       <c r="E8" s="3">
         <v>5.0918163012823712</v>
       </c>
-      <c r="F8" s="3">
-        <v>25.625518148933455</v>
+      <c r="F8" s="10">
+        <v>69.535514698447869</v>
       </c>
       <c r="G8" s="3">
         <v>0.31446273475332687</v>
@@ -817,8 +817,8 @@
       <c r="E9" s="3">
         <v>4.9718409309626379</v>
       </c>
-      <c r="F9" s="3">
-        <v>31.052372050877317</v>
+      <c r="F9" s="10">
+        <v>84.261424905288024</v>
       </c>
       <c r="G9" s="3">
         <v>0.67747664199294932</v>
@@ -852,8 +852,8 @@
       <c r="E10" s="3">
         <v>4.2094842336802554</v>
       </c>
-      <c r="F10" s="3">
-        <v>27.097239427936145</v>
+      <c r="F10" s="10">
+        <v>73.529068937364585</v>
       </c>
       <c r="G10" s="3">
         <v>0.36339711459054141</v>
@@ -887,8 +887,8 @@
       <c r="E11" s="3">
         <v>4.4081653750995935</v>
       </c>
-      <c r="F11" s="3">
-        <v>24.529268722409295</v>
+      <c r="F11" s="10">
+        <v>66.560813165850448</v>
       </c>
       <c r="G11" s="3">
         <v>0.49958986693963969</v>
@@ -922,8 +922,8 @@
       <c r="E12" s="3">
         <v>5.0890541362608319</v>
       </c>
-      <c r="F12" s="3">
-        <v>36.019209602001176</v>
+      <c r="F12" s="10">
+        <v>97.739068695111257</v>
       </c>
       <c r="G12" s="3">
         <v>0.69827203592415588</v>
@@ -957,8 +957,8 @@
       <c r="E13" s="3">
         <v>5.0138237044731753</v>
       </c>
-      <c r="F13" s="3">
-        <v>33.787368848126782</v>
+      <c r="F13" s="10">
+        <v>91.682910351554554</v>
       </c>
       <c r="G13" s="3">
         <v>0.44567761694384034</v>
@@ -992,8 +992,8 @@
       <c r="E14" s="3">
         <v>5.1783661186313488</v>
       </c>
-      <c r="F14" s="3">
-        <v>28.113680390073675</v>
+      <c r="F14" s="10">
+        <v>76.287208111450326</v>
       </c>
       <c r="G14" s="3">
         <v>0.60105432347352739</v>
@@ -1027,8 +1027,8 @@
       <c r="E15" s="3">
         <v>5.3401778066903809</v>
       </c>
-      <c r="F15" s="3">
-        <v>25.848122152276801</v>
+      <c r="F15" s="10">
+        <v>70.13955649211826</v>
       </c>
       <c r="G15" s="3">
         <v>0.31880066854438827</v>
@@ -1062,8 +1062,8 @@
       <c r="E16" s="3">
         <v>5.347941214048344</v>
       </c>
-      <c r="F16" s="3">
-        <v>20.440525894905008</v>
+      <c r="F16" s="10">
+        <v>55.465902408233973</v>
       </c>
       <c r="G16" s="3">
         <v>1.143294211308493</v>
@@ -1097,8 +1097,8 @@
       <c r="E17" s="3">
         <v>5.344755418534163</v>
       </c>
-      <c r="F17" s="3">
-        <v>23.077741827624617</v>
+      <c r="F17" s="10">
+        <v>62.622056917454614</v>
       </c>
       <c r="G17" s="3">
         <v>1.4627597191857415</v>
@@ -1132,8 +1132,8 @@
       <c r="E18" s="3">
         <v>4.8608712360380855</v>
       </c>
-      <c r="F18" s="3">
-        <v>26.017932245687106</v>
+      <c r="F18" s="10">
+        <v>70.600340628370674</v>
       </c>
       <c r="G18" s="3">
         <v>1.0243890354678071</v>
@@ -1167,8 +1167,8 @@
       <c r="E19" s="3">
         <v>5.1948003872800372</v>
       </c>
-      <c r="F19" s="3">
-        <v>26.47755970531469</v>
+      <c r="F19" s="10">
+        <v>71.847551778950844</v>
       </c>
       <c r="G19" s="3">
         <v>0.60660024986271854</v>
@@ -1202,8 +1202,8 @@
       <c r="E20" s="3">
         <v>4.4112723348099401</v>
       </c>
-      <c r="F20" s="3">
-        <v>25.596079892184694</v>
+      <c r="F20" s="10">
+        <v>69.45563321769292</v>
       </c>
       <c r="G20" s="3">
         <v>0.93868462984911116</v>
@@ -1237,8 +1237,8 @@
       <c r="E21" s="3">
         <v>5.0066117451418606</v>
       </c>
-      <c r="F21" s="3">
-        <v>18.196241131952</v>
+      <c r="F21" s="10">
+        <v>49.375976920100335</v>
       </c>
       <c r="G21" s="3">
         <v>0.73894730704836731</v>
@@ -1272,8 +1272,8 @@
       <c r="E22" s="3">
         <v>4.6373790842944818</v>
       </c>
-      <c r="F22" s="3">
-        <v>34.706783251246556</v>
+      <c r="F22" s="10">
+        <v>94.177765416358824</v>
       </c>
       <c r="G22" s="3">
         <v>0.57716936730724322</v>
@@ -1307,8 +1307,8 @@
       <c r="E23" s="3">
         <v>4.9466981255906814</v>
       </c>
-      <c r="F23" s="3">
-        <v>29.610368548006374</v>
+      <c r="F23" s="10">
+        <v>80.348510630293404</v>
       </c>
       <c r="G23" s="3">
         <v>1.0234292748550589</v>
@@ -1342,8 +1342,8 @@
       <c r="E24" s="3">
         <v>4.8026321172735216</v>
       </c>
-      <c r="F24" s="3">
-        <v>31.94149164660557</v>
+      <c r="F24" s="10">
+        <v>86.674074216732805</v>
       </c>
       <c r="G24" s="3">
         <v>0.76932948191556294</v>
@@ -1377,8 +1377,8 @@
       <c r="E25" s="3">
         <v>5.0037433258758819</v>
       </c>
-      <c r="F25" s="3">
-        <v>44.522134278696214</v>
+      <c r="F25" s="10">
+        <v>120.81197751981463</v>
       </c>
       <c r="G25" s="3">
         <v>0.80585845240768983</v>
@@ -1412,8 +1412,8 @@
       <c r="E26" s="3">
         <v>4.9450687720222426</v>
       </c>
-      <c r="F26" s="3">
-        <v>68.464646872622524</v>
+      <c r="F26" s="10">
+        <v>185.78061256230365</v>
       </c>
       <c r="G26" s="3">
         <v>0.84329990176321712</v>
@@ -1447,8 +1447,8 @@
       <c r="E27" s="3">
         <v>6.235675567235873</v>
       </c>
-      <c r="F27" s="3">
-        <v>43.186376783516906</v>
+      <c r="F27" s="10">
+        <v>117.18736456956029</v>
       </c>
       <c r="G27" s="3">
         <v>1.0904137803091647</v>
@@ -1482,8 +1482,8 @@
       <c r="E28" s="3">
         <v>4.9823743421695834</v>
       </c>
-      <c r="F28" s="3">
-        <v>40.748973900245417</v>
+      <c r="F28" s="10">
+        <v>110.57340800365884</v>
       </c>
       <c r="G28" s="3">
         <v>1.5058178510323523</v>
@@ -1517,8 +1517,8 @@
       <c r="E29" s="3">
         <v>4.9784422869747527</v>
       </c>
-      <c r="F29" s="3">
-        <v>40.454306342791</v>
+      <c r="F29" s="10">
+        <v>109.77381986836959</v>
       </c>
       <c r="G29" s="3">
         <v>0.92456117267142501</v>
@@ -1552,8 +1552,8 @@
       <c r="E30" s="3">
         <v>5.2504704119064494</v>
       </c>
-      <c r="F30" s="3">
-        <v>21.844061170593765</v>
+      <c r="F30" s="10">
+        <v>59.274432141183318</v>
       </c>
       <c r="G30" s="3">
         <v>0.66179578286929985</v>
@@ -1587,8 +1587,8 @@
       <c r="E31" s="3">
         <v>5.5251102915951797</v>
       </c>
-      <c r="F31" s="3">
-        <v>29.615969325946374</v>
+      <c r="F31" s="10">
+        <v>80.363708487933039</v>
       </c>
       <c r="G31" s="3">
         <v>0.85536138468991718</v>
@@ -1622,8 +1622,8 @@
       <c r="E32" s="3">
         <v>4.2388809865648502</v>
       </c>
-      <c r="F32" s="3">
-        <v>17.795457442223775</v>
+      <c r="F32" s="10">
+        <v>48.288439880418835</v>
       </c>
       <c r="G32" s="3">
         <v>0.24678520530640699</v>
@@ -1657,8 +1657,8 @@
       <c r="E33" s="3">
         <v>4.2383084947094432</v>
       </c>
-      <c r="F33" s="3">
-        <v>22.965133420656404</v>
+      <c r="F33" s="10">
+        <v>62.31649105562898</v>
       </c>
       <c r="G33" s="3">
         <v>1.4962035950372312</v>
@@ -1692,8 +1692,8 @@
       <c r="E34" s="3">
         <v>4.8452501458969692</v>
       </c>
-      <c r="F34" s="3">
-        <v>20.476109767066013</v>
+      <c r="F34" s="10">
+        <v>55.562460177380295</v>
       </c>
       <c r="G34" s="3">
         <v>0.95156906933604191</v>
@@ -1727,8 +1727,8 @@
       <c r="E35" s="3">
         <v>4.3830713823562686</v>
       </c>
-      <c r="F35" s="3">
-        <v>20.432140870019332</v>
+      <c r="F35" s="10">
+        <v>55.443149423580323</v>
       </c>
       <c r="G35" s="3">
         <v>1.0041569673286654</v>
@@ -1762,8 +1762,8 @@
       <c r="E36" s="3">
         <v>4.099975872661541</v>
       </c>
-      <c r="F36" s="3">
-        <v>22.170675836643497</v>
+      <c r="F36" s="10">
+        <v>60.160709592426777</v>
       </c>
       <c r="G36" s="3">
         <v>1.1149323738618544</v>
@@ -1797,8 +1797,8 @@
       <c r="E37" s="3">
         <v>4.4787186703461472</v>
       </c>
-      <c r="F37" s="3">
-        <v>27.511108350730158</v>
+      <c r="F37" s="10">
+        <v>74.652113099707563</v>
       </c>
       <c r="G37" s="3">
         <v>0.67534143596118146</v>
@@ -1832,8 +1832,8 @@
       <c r="E38" s="3">
         <v>4.8322962648734995</v>
       </c>
-      <c r="F38" s="3">
-        <v>17.167907350265132</v>
+      <c r="F38" s="10">
+        <v>46.585566268662468</v>
       </c>
       <c r="G38" s="3">
         <v>1.1853611664901189</v>
@@ -1861,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
